--- a/v0.6-Experimental/custom_versions/Luca-moment-of-inertia.xlsx
+++ b/v0.6-Experimental/custom_versions/Luca-moment-of-inertia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\temp\projects\erg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6D9484-B6A0-4685-81EE-62709024F9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71BA43-F9D4-4028-9D7C-1AF9A2C1E81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BC532C4C-AE10-4728-B1CD-92EAF3D369F3}"/>
+    <workbookView xWindow="7335" yWindow="1230" windowWidth="19365" windowHeight="13080" xr2:uid="{BC532C4C-AE10-4728-B1CD-92EAF3D369F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>dampers</t>
   </si>
@@ -74,9 +74,6 @@
     <t>h</t>
   </si>
   <si>
-    <t xml:space="preserve">rho </t>
-  </si>
-  <si>
     <t>mavic ma40</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>kg/m^3</t>
   </si>
   <si>
-    <t>mass est (Dave)</t>
-  </si>
-  <si>
     <t>ok!!!!</t>
   </si>
   <si>
@@ -174,6 +168,24 @@
   </si>
   <si>
     <t>J (moment of inertia)</t>
+  </si>
+  <si>
+    <t>cal factor</t>
+  </si>
+  <si>
+    <t>plywood density, from web)</t>
+  </si>
+  <si>
+    <t>Dave's estimate, compare to Luca's 60g</t>
+  </si>
+  <si>
+    <t>mass estimate</t>
+  </si>
+  <si>
+    <t>rho (density)</t>
+  </si>
+  <si>
+    <t>.04350 to .03750 (from Luca, so take average)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +193,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -245,7 +257,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FDBF28-BB7D-4253-B1D1-33E7D3EA7664}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,18 +589,19 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -606,71 +619,77 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -678,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -691,11 +710,11 @@
         <v>480</v>
       </c>
       <c r="G4" s="1">
-        <f>((1/12)*(C4*D4)*(J4^2+K4^2)+(C4*D4)*N4^2)/1000</f>
+        <f>((1/12)*(C4*D4)*(J4^2+K4^2)+(C4*D4)*M4^2)/1000</f>
         <v>1.8030279999999999E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>0.08</v>
@@ -707,17 +726,17 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <f>L4+0.5*J4</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="N4">
         <v>680</v>
       </c>
-      <c r="M4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="N4">
-        <f>M4+0.5*J4</f>
-        <v>0.18099999999999999</v>
-      </c>
       <c r="O4">
-        <f>L4*(I4*J4*K4)*1000</f>
+        <f>N4*(I4*J4*K4)*1000</f>
         <v>65.279999999999987</v>
       </c>
     </row>
@@ -726,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -746,10 +765,10 @@
         <v>4.6426080000000002E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -774,7 +793,7 @@
         <v>8.2535253333333326E-3</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -799,7 +818,7 @@
         <v>6.1901439999999999E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -807,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -827,7 +846,7 @@
         <v>4.95E-4</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -835,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -855,35 +874,35 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3">
         <f>SUM(G4:G9)</f>
         <v>7.9875029333333319E-2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0.16</v>
@@ -897,7 +916,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>3.0999999999999999E-3</v>
@@ -906,12 +925,13 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>1.7100000000000001E-2</v>
-      </c>
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <f>B13*B14</f>
@@ -923,12 +943,13 @@
       </c>
       <c r="D15" s="1">
         <f>D13*D14</f>
-        <v>1.36629E-3</v>
-      </c>
+        <v>3.23595E-3</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>3.0999999999999999E-3</v>
@@ -937,13 +958,15 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D16" s="1">
-        <f>C16</f>
-        <v>1.7100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1">
         <f>B13*B16</f>
@@ -955,7 +978,35 @@
       </c>
       <c r="D17" s="1">
         <f>D13*D16</f>
-        <v>1.36629E-3</v>
+        <v>3.23595E-3</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <f>PI()*(B17/2.8)^(1/3)</f>
+        <v>0.17643757810495714</v>
+      </c>
+      <c r="D18">
+        <f>PI()*(D17/2.8)^(1/3)</f>
+        <v>0.32968394356148112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>2*B18</f>
+        <v>0.35287515620991428</v>
+      </c>
+      <c r="D19">
+        <f>2*D18</f>
+        <v>0.65936788712296224</v>
+      </c>
+      <c r="E19">
+        <f>D19/B19</f>
+        <v>1.868558541227326</v>
       </c>
     </row>
   </sheetData>
